--- a/Documentatie/Userstories+Scrumboard.xlsx
+++ b/Documentatie/Userstories+Scrumboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\!coding\Zadkine MBO\2023-2024 Schooljaar 4\Examen\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FA7B3-4114-4FE2-857C-C38A71259EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7EDE0-E1E6-4003-A983-B0F52CA9D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08758D48-CC8F-469B-ADEA-8754BEEED6A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>ALS</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Gebruikers Manual</t>
   </si>
   <si>
-    <t>quickstart guide</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -125,10 +122,28 @@
     <t>Onsite Manual</t>
   </si>
   <si>
-    <t>weet hoe de site werkt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>om de database snel te kunnen aanpassen</t>
+  </si>
+  <si>
+    <t>om vragen naar de oude tool te brengen om ze daar verder aan te passen</t>
+  </si>
+  <si>
+    <t>vragen selecteren om o.a. te exporteren</t>
+  </si>
+  <si>
+    <t>voor al het gebruik</t>
+  </si>
+  <si>
+    <t>om vragen te kunnen bewerken</t>
+  </si>
+  <si>
+    <t>zodat alle mensen de site kunnen gebruiken</t>
+  </si>
+  <si>
+    <t>geen duplicate vragen wanneer export wordt gebruikt</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -387,7 +408,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,6 +416,8 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1147,7 +1169,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,19 +1207,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1216,15 +1238,17 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1242,13 +1266,15 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
@@ -1268,13 +1294,15 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
@@ -1300,9 +1328,9 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
@@ -1322,13 +1350,15 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
@@ -1348,13 +1378,15 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
@@ -1369,20 +1401,20 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
@@ -1391,24 +1423,26 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="7">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
@@ -1417,26 +1451,26 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
@@ -1451,20 +1485,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
@@ -1484,9 +1518,9 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
@@ -1506,9 +1540,9 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
@@ -1528,9 +1562,9 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
@@ -1550,9 +1584,9 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
@@ -1572,9 +1606,9 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
@@ -1594,9 +1628,9 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
@@ -1616,9 +1650,9 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
@@ -1638,15 +1672,15 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1659,20 +1693,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7a22278a-d98a-4584-982c-052234b37a46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7a22278a-d98a-4584-982c-052234b37a46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,14 +1945,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234C6D31-723B-4C89-9D43-A8209A623890}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4E72E0-1AC1-4D37-BD6B-751292367503}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1931,6 +1957,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234C6D31-723B-4C89-9D43-A8209A623890}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
